--- a/links.xlsx
+++ b/links.xlsx
@@ -21,36 +21,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>links</t>
   </si>
   <si>
-    <t>https://amzn.to/3B0VQmB</t>
-  </si>
-  <si>
-    <t>https://amzn.to/3XrjmRn</t>
-  </si>
-  <si>
-    <t>https://amzn.to/4e2kxxQ</t>
-  </si>
-  <si>
-    <t>https://amzn.to/4gnL2iM</t>
-  </si>
-  <si>
-    <t>https://amzn.to/4dagNca</t>
-  </si>
-  <si>
-    <t>https://amzn.to/3MI0poy</t>
-  </si>
-  <si>
-    <t>https://amzn.to/3MHv31v</t>
-  </si>
-  <si>
-    <t>https://amzn.to/47vwwRV</t>
-  </si>
-  <si>
-    <t>https://amzn.to/4gmiRkj</t>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1800</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W200</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/seo/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200_9655848b-09ef-48fb-a63b-142f8c044a5f.a2f507beff257a0e415bdb7d4e715381.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1801</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W201</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1802</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W202</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1803</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W203</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1804</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W204</t>
+  </si>
+  <si>
+    <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1805</t>
+  </si>
+  <si>
+    <t>Prettycare Cordless Stick Vacuum Cleaner Lightweight Upright for Carpet Hard Floor Pet Hair W205</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -403,62 +421,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/links.xlsx
+++ b/links.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>links</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>https://www.walmart.com/ip/Prettycare-Cordless-Stick-Vacuum-Cleaner-Lightweight-for-Carpet-Floor-Pet-Hair-W200/903952057?classType=VARIANT&amp;athbdg=L1800</t>
   </si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,79 +434,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
